--- a/raw_data/20200818_saline/20200818_Sensor2_Test_82.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_82.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B8428-9926-4FEB-8EEB-685C6B5DE8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>73273.457511</v>
+        <v>73273.457511000001</v>
       </c>
       <c r="B2" s="1">
         <v>20.353738</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.430000</v>
+        <v>1248.43</v>
       </c>
       <c r="D2" s="1">
-        <v>-299.971000</v>
+        <v>-299.971</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>73284.163162</v>
+        <v>73284.163161999997</v>
       </c>
       <c r="G2" s="1">
-        <v>20.356712</v>
+        <v>20.356712000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.190000</v>
+        <v>1272.19</v>
       </c>
       <c r="I2" s="1">
-        <v>-259.663000</v>
+        <v>-259.66300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>73294.657515</v>
+        <v>73294.657514999999</v>
       </c>
       <c r="L2" s="1">
         <v>20.359627</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.440000</v>
+        <v>1307.44</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.269000</v>
+        <v>-201.26900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>73304.969341</v>
+        <v>73304.969341000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.362491</v>
+        <v>20.362490999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.305000</v>
+        <v>-184.30500000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>73315.241488</v>
       </c>
       <c r="V2" s="1">
-        <v>20.365345</v>
+        <v>20.365345000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1333.570000</v>
+        <v>1333.57</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.650000</v>
+        <v>-171.65</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>73325.373266</v>
+        <v>73325.373265999995</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.368159</v>
+        <v>20.368158999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.880000</v>
+        <v>1351.88</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.987000</v>
+        <v>-169.98699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>73335.645166</v>
+        <v>73335.645166000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.371013</v>
+        <v>20.371013000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1365.550000</v>
+        <v>1365.55</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.165000</v>
+        <v>-180.16499999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>73345.787144</v>
+        <v>73345.787144000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.373830</v>
+        <v>20.373830000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1387.160000</v>
+        <v>1387.16</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.866000</v>
+        <v>-209.86600000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>73356.383147</v>
@@ -601,437 +1017,437 @@
         <v>20.376773</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1409.690000</v>
+        <v>1409.69</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.271000</v>
+        <v>-253.27099999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>73367.419627</v>
+        <v>73367.419626999996</v>
       </c>
       <c r="AU2" s="1">
         <v>20.379839</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.050000</v>
+        <v>1435.05</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.486000</v>
+        <v>-312.48599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>73378.491820</v>
+        <v>73378.491819999996</v>
       </c>
       <c r="AZ2" s="1">
         <v>20.382914</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.845000</v>
+        <v>-363.84500000000003</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>73389.410749</v>
+        <v>73389.410749000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.385947</v>
+        <v>20.385947000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1541.930000</v>
+        <v>1541.93</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.162000</v>
+        <v>-608.16200000000003</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>73400.826175</v>
+        <v>73400.826174999995</v>
       </c>
       <c r="BJ2" s="1">
         <v>20.389118</v>
       </c>
       <c r="BK2" s="1">
-        <v>1698.390000</v>
+        <v>1698.39</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1044.970000</v>
+        <v>-1044.97</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>73411.923169</v>
+        <v>73411.923169000002</v>
       </c>
       <c r="BO2" s="1">
         <v>20.392201</v>
       </c>
       <c r="BP2" s="1">
-        <v>1994.770000</v>
+        <v>1994.77</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1798.710000</v>
+        <v>-1798.71</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>73423.373841</v>
+        <v>73423.373840999993</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.395382</v>
+        <v>20.395382000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2386.330000</v>
+        <v>2386.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2663.890000</v>
+        <v>-2663.89</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>73434.513955</v>
+        <v>73434.513955000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.398476</v>
+        <v>20.398475999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2867.460000</v>
+        <v>2867.46</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3604.740000</v>
+        <v>-3604.74</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>73445.879283</v>
+        <v>73445.879283000002</v>
       </c>
       <c r="CD2" s="1">
         <v>20.401633</v>
       </c>
       <c r="CE2" s="1">
-        <v>4282.370000</v>
+        <v>4282.37</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5854.230000</v>
+        <v>-5854.23</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>73274.144470</v>
+        <v>73274.144469999999</v>
       </c>
       <c r="B3" s="1">
-        <v>20.353929</v>
+        <v>20.353929000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.270000</v>
+        <v>1248.27</v>
       </c>
       <c r="D3" s="1">
-        <v>-299.602000</v>
+        <v>-299.60199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>73284.570376</v>
+        <v>73284.570376000003</v>
       </c>
       <c r="G3" s="1">
-        <v>20.356825</v>
+        <v>20.356825000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.300000</v>
+        <v>1272.3</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.783000</v>
+        <v>-260.78300000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>73295.064269</v>
+        <v>73295.064268999995</v>
       </c>
       <c r="L3" s="1">
-        <v>20.359740</v>
+        <v>20.359739999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.460000</v>
+        <v>1307.46</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.094000</v>
+        <v>-201.09399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>73305.320508</v>
+        <v>73305.320508000004</v>
       </c>
       <c r="Q3" s="1">
         <v>20.362589</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.840000</v>
+        <v>1319.84</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.240000</v>
+        <v>-184.24</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>73315.610511</v>
+        <v>73315.610511000006</v>
       </c>
       <c r="V3" s="1">
         <v>20.365447</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.560000</v>
+        <v>1333.56</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.637000</v>
+        <v>-171.637</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>73325.756674</v>
+        <v>73325.756674000004</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.368266</v>
+        <v>20.368265999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1352.100000</v>
+        <v>1352.1</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.296000</v>
+        <v>-170.29599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>73336.063540</v>
+        <v>73336.063540000003</v>
       </c>
       <c r="AF3" s="1">
         <v>20.371129</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.520000</v>
+        <v>1365.52</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.159000</v>
+        <v>-180.15899999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>73346.212184</v>
+        <v>73346.212184000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.373948</v>
+        <v>20.373947999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1387.170000</v>
+        <v>1387.17</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.856000</v>
+        <v>-209.85599999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>73356.809209</v>
+        <v>73356.809208999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.376891</v>
+        <v>20.376891000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1409.640000</v>
+        <v>1409.64</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.251000</v>
+        <v>-253.251</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>73367.787691</v>
+        <v>73367.787691000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.379941</v>
+        <v>20.379940999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1435.050000</v>
+        <v>1435.05</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.450000</v>
+        <v>-312.45</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>73378.850925</v>
+        <v>73378.850925000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.383014</v>
+        <v>20.383013999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.880000</v>
+        <v>1454.88</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.807000</v>
+        <v>-363.80700000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>73389.783741</v>
+        <v>73389.783741000007</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.386051</v>
+        <v>20.386050999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.162000</v>
+        <v>-608.16200000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>73401.249758</v>
+        <v>73401.249758000005</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.389236</v>
       </c>
       <c r="BK3" s="1">
-        <v>1698.080000</v>
+        <v>1698.08</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1044.940000</v>
+        <v>-1044.94</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>73412.749999</v>
+        <v>73412.749999000007</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.392431</v>
+        <v>20.392430999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1994.820000</v>
+        <v>1994.82</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1798.740000</v>
+        <v>-1798.74</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>73423.866864</v>
+        <v>73423.866863999996</v>
       </c>
       <c r="BT3" s="1">
         <v>20.395519</v>
       </c>
       <c r="BU3" s="1">
-        <v>2386.090000</v>
+        <v>2386.09</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2664.250000</v>
+        <v>-2664.25</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>73434.973746</v>
+        <v>73434.973746000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.398604</v>
+        <v>20.398603999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2866.610000</v>
+        <v>2866.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3605.110000</v>
+        <v>-3605.11</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>73446.438770</v>
+        <v>73446.438769999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.401789</v>
+        <v>20.401789000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4267.690000</v>
+        <v>4267.6899999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5845.960000</v>
+        <v>-5845.96</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>73274.489190</v>
+        <v>73274.489189999993</v>
       </c>
       <c r="B4" s="1">
         <v>20.354025</v>
       </c>
       <c r="C4" s="1">
-        <v>1248.530000</v>
+        <v>1248.53</v>
       </c>
       <c r="D4" s="1">
-        <v>-299.734000</v>
+        <v>-299.73399999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>73284.909640</v>
+        <v>73284.909639999998</v>
       </c>
       <c r="G4" s="1">
-        <v>20.356919</v>
+        <v>20.356919000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.040000</v>
+        <v>1273.04</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.021000</v>
+        <v>-260.02100000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>73295.409947</v>
+        <v>73295.409946999993</v>
       </c>
       <c r="L4" s="1">
-        <v>20.359836</v>
+        <v>20.359836000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.320000</v>
+        <v>1307.32</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.360000</v>
+        <v>-201.36</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>73305.669727</v>
@@ -1040,1191 +1456,1191 @@
         <v>20.362686</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.303000</v>
+        <v>-184.303</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>73316.140238</v>
+        <v>73316.140238000007</v>
       </c>
       <c r="V4" s="1">
-        <v>20.365595</v>
+        <v>20.365594999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.700000</v>
+        <v>1333.7</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.575000</v>
+        <v>-171.57499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>73326.183233</v>
+        <v>73326.183233000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.368384</v>
+        <v>20.368383999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.900000</v>
+        <v>1351.9</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.123000</v>
+        <v>-170.12299999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>73336.392388</v>
+        <v>73336.392387999993</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.371220</v>
+        <v>20.371220000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1365.510000</v>
+        <v>1365.51</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.053000</v>
+        <v>-180.053</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>73346.547481</v>
+        <v>73346.547481000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.374041</v>
+        <v>20.374040999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1387.150000</v>
+        <v>1387.15</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.931000</v>
+        <v>-209.93100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>73357.164344</v>
+        <v>73357.164344000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.376990</v>
+        <v>20.376989999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1409.680000</v>
+        <v>1409.68</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.285000</v>
+        <v>-253.285</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>73368.153211</v>
+        <v>73368.153210999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.380043</v>
+        <v>20.380043000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1435.060000</v>
+        <v>1435.06</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.459000</v>
+        <v>-312.459</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>73379.209563</v>
+        <v>73379.209562999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.383114</v>
+        <v>20.383113999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.816000</v>
+        <v>-363.81599999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>73390.508892</v>
+        <v>73390.508891999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.386252</v>
+        <v>20.386251999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1541.940000</v>
+        <v>1541.94</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.145000</v>
+        <v>-608.14499999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>73401.607374</v>
+        <v>73401.607373999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.389335</v>
+        <v>20.389334999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1698.220000</v>
+        <v>1698.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1044.890000</v>
+        <v>-1044.8900000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>73413.167136</v>
+        <v>73413.167136000004</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.392546</v>
+        <v>20.392545999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1994.660000</v>
+        <v>1994.66</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1798.710000</v>
+        <v>-1798.71</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>73424.303807</v>
+        <v>73424.303807000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.395640</v>
+        <v>20.39564</v>
       </c>
       <c r="BU4" s="1">
-        <v>2385.850000</v>
+        <v>2385.85</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2664.540000</v>
+        <v>-2664.54</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>73435.744033</v>
+        <v>73435.744032999995</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.398818</v>
+        <v>20.398817999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2866.200000</v>
+        <v>2866.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3605.840000</v>
+        <v>-3605.84</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>73447.316690</v>
+        <v>73447.316690000007</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.402032</v>
+        <v>20.402031999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>4284.500000</v>
+        <v>4284.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5851.490000</v>
+        <v>-5851.49</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>73274.832421</v>
+        <v>73274.832420999999</v>
       </c>
       <c r="B5" s="1">
-        <v>20.354120</v>
+        <v>20.354120000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1248.430000</v>
+        <v>1248.43</v>
       </c>
       <c r="D5" s="1">
-        <v>-299.684000</v>
+        <v>-299.68400000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>73285.255849</v>
+        <v>73285.255848999994</v>
       </c>
       <c r="G5" s="1">
-        <v>20.357016</v>
+        <v>20.357016000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.170000</v>
+        <v>1272.17</v>
       </c>
       <c r="I5" s="1">
-        <v>-259.982000</v>
+        <v>-259.98200000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>73295.757641</v>
+        <v>73295.757641000004</v>
       </c>
       <c r="L5" s="1">
-        <v>20.359933</v>
+        <v>20.359933000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.800000</v>
+        <v>1307.8</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.276000</v>
+        <v>-201.27600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>73306.094268</v>
+        <v>73306.094268000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.362804</v>
+        <v>20.362804000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.337000</v>
+        <v>-184.33699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>73316.302926</v>
+        <v>73316.302926000004</v>
       </c>
       <c r="V5" s="1">
-        <v>20.365640</v>
+        <v>20.365639999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.450000</v>
+        <v>1333.45</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.725000</v>
+        <v>-171.72499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>73326.477361</v>
+        <v>73326.477360999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.368466</v>
+        <v>20.368466000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.870000</v>
+        <v>1351.87</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.122000</v>
+        <v>-170.12200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>73336.735651</v>
+        <v>73336.735650999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.371315</v>
+        <v>20.371314999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1365.590000</v>
+        <v>1365.59</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.211000</v>
+        <v>-180.21100000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>73346.895174</v>
+        <v>73346.895174000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.374138</v>
+        <v>20.374137999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1387.160000</v>
+        <v>1387.16</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.846000</v>
+        <v>-209.846</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>73357.522952</v>
+        <v>73357.522951999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.377090</v>
+        <v>20.377089999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.270000</v>
+        <v>-253.27</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>73368.883320</v>
+        <v>73368.883319999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.380245</v>
+        <v>20.380244999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.459000</v>
+        <v>-312.459</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>73379.929259</v>
+        <v>73379.929258999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.383314</v>
+        <v>20.383313999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.807000</v>
+        <v>-363.80700000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>73390.897260</v>
+        <v>73390.897259999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.386360</v>
+        <v>20.38636</v>
       </c>
       <c r="BF5" s="1">
-        <v>1541.940000</v>
+        <v>1541.94</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.151000</v>
+        <v>-608.15099999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>73401.983382</v>
+        <v>73401.983382000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.389440</v>
+        <v>20.38944</v>
       </c>
       <c r="BK5" s="1">
-        <v>1698.140000</v>
+        <v>1698.14</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1045.040000</v>
+        <v>-1045.04</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>73413.566911</v>
+        <v>73413.566911000002</v>
       </c>
       <c r="BO5" s="1">
         <v>20.392657</v>
       </c>
       <c r="BP5" s="1">
-        <v>1994.650000</v>
+        <v>1994.65</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1798.710000</v>
+        <v>-1798.71</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>73425.051774</v>
+        <v>73425.051774000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.395848</v>
+        <v>20.395848000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2385.540000</v>
+        <v>2385.54</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2664.910000</v>
+        <v>-2664.91</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>73435.858608</v>
+        <v>73435.858607999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.398850</v>
+        <v>20.398849999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2867.240000</v>
+        <v>2867.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3605.500000</v>
+        <v>-3605.5</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>73447.514096</v>
+        <v>73447.514095999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.402087</v>
+        <v>20.402087000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>4282.130000</v>
+        <v>4282.13</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5851.630000</v>
+        <v>-5851.63</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>73275.184097</v>
+        <v>73275.184097000005</v>
       </c>
       <c r="B6" s="1">
-        <v>20.354218</v>
+        <v>20.354217999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1248.430000</v>
+        <v>1248.43</v>
       </c>
       <c r="D6" s="1">
-        <v>-299.672000</v>
+        <v>-299.67200000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73285.686871</v>
+        <v>73285.686870999998</v>
       </c>
       <c r="G6" s="1">
         <v>20.357135</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.100000</v>
+        <v>1272.0999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-259.981000</v>
+        <v>-259.98099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>73296.181989</v>
+        <v>73296.181989000004</v>
       </c>
       <c r="L6" s="1">
-        <v>20.360051</v>
+        <v>20.360050999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.700000</v>
+        <v>1307.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.206000</v>
+        <v>-201.20599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>73306.372028</v>
+        <v>73306.372027999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.362881</v>
+        <v>20.362881000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.355000</v>
+        <v>-184.35499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>73316.645662</v>
+        <v>73316.645661999995</v>
       </c>
       <c r="V6" s="1">
-        <v>20.365735</v>
+        <v>20.365735000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.740000</v>
+        <v>1333.74</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.685000</v>
+        <v>-171.685</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>73326.827537</v>
+        <v>73326.827537000005</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.368563</v>
+        <v>20.368563000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.900000</v>
+        <v>1351.9</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.317000</v>
+        <v>-170.31700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>73337.081827</v>
+        <v>73337.081827000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.371412</v>
+        <v>20.371411999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1365.330000</v>
+        <v>1365.33</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.241000</v>
+        <v>-180.24100000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>73347.243863</v>
+        <v>73347.243862999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.374234</v>
+        <v>20.374234000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1387.150000</v>
+        <v>1387.15</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.875000</v>
+        <v>-209.875</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>73358.242997</v>
+        <v>73358.242996999994</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.377290</v>
+        <v>20.377289999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1409.670000</v>
+        <v>1409.67</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.258000</v>
+        <v>-253.25800000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>73369.246392</v>
+        <v>73369.246392000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.380346</v>
+        <v>20.380345999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.478000</v>
+        <v>-312.47800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>73380.287337</v>
+        <v>73380.287337000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.383413</v>
+        <v>20.383413000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.930000</v>
+        <v>1454.93</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.842000</v>
+        <v>-363.84199999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>73391.257884</v>
+        <v>73391.257884000006</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.386461</v>
+        <v>20.386461000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1541.910000</v>
+        <v>1541.91</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.144000</v>
+        <v>-608.14400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>73402.678733</v>
+        <v>73402.678732999993</v>
       </c>
       <c r="BJ6" s="1">
         <v>20.389633</v>
       </c>
       <c r="BK6" s="1">
-        <v>1698.120000</v>
+        <v>1698.12</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1045.010000</v>
+        <v>-1045.01</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>73414.337205</v>
+        <v>73414.337205000003</v>
       </c>
       <c r="BO6" s="1">
         <v>20.392871</v>
       </c>
       <c r="BP6" s="1">
-        <v>1994.630000</v>
+        <v>1994.63</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1798.710000</v>
+        <v>-1798.71</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>73425.178287</v>
+        <v>73425.178287000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.395883</v>
+        <v>20.395883000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2385.710000</v>
+        <v>2385.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2664.760000</v>
+        <v>-2664.76</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>73436.282208</v>
+        <v>73436.282208000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.398967</v>
+        <v>20.398966999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2866.640000</v>
+        <v>2866.64</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3605.940000</v>
+        <v>-3605.94</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>73448.036918</v>
+        <v>73448.036917999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.402232</v>
+        <v>20.402232000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4268.580000</v>
+        <v>4268.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5848.040000</v>
+        <v>-5848.04</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>73275.612665</v>
+        <v>73275.612664999993</v>
       </c>
       <c r="B7" s="1">
-        <v>20.354337</v>
+        <v>20.354337000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.090000</v>
+        <v>1248.0899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-299.624000</v>
+        <v>-299.62400000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>73285.951275</v>
+        <v>73285.951274999999</v>
       </c>
       <c r="G7" s="1">
-        <v>20.357209</v>
+        <v>20.357209000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.470000</v>
+        <v>1272.47</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.637000</v>
+        <v>-260.637</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>73296.473368</v>
+        <v>73296.473368000006</v>
       </c>
       <c r="L7" s="1">
-        <v>20.360131</v>
+        <v>20.360130999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.670000</v>
+        <v>1307.67</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.557000</v>
+        <v>-201.55699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>73306.721212</v>
+        <v>73306.721212000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.362978</v>
+        <v>20.362977999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.810000</v>
+        <v>1319.81</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.371000</v>
+        <v>-184.37100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>73316.990381</v>
+        <v>73316.990380999996</v>
       </c>
       <c r="V7" s="1">
         <v>20.365831</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.680000</v>
+        <v>1333.68</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.977000</v>
+        <v>-171.977</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>73327.175232</v>
+        <v>73327.175231999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.368660</v>
+        <v>20.368659999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.950000</v>
+        <v>1351.95</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.147000</v>
+        <v>-170.14699999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>73337.768819</v>
+        <v>73337.768819000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.371602</v>
+        <v>20.371601999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1365.540000</v>
+        <v>1365.54</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.287000</v>
+        <v>-180.28700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>73347.945700</v>
+        <v>73347.945699999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.374429</v>
+        <v>20.374428999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1387.170000</v>
+        <v>1387.17</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.856000</v>
+        <v>-209.85599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>73358.606712</v>
+        <v>73358.606711999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.377391</v>
+        <v>20.377390999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.253000</v>
+        <v>-253.25299999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>73369.610456</v>
+        <v>73369.610455999995</v>
       </c>
       <c r="AU7" s="1">
         <v>20.380447</v>
       </c>
       <c r="AV7" s="1">
-        <v>1435.050000</v>
+        <v>1435.05</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.467000</v>
+        <v>-312.46699999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>73380.648921</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.383514</v>
+        <v>20.383514000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.920000</v>
+        <v>1454.92</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.816000</v>
+        <v>-363.81599999999997</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>73391.933403</v>
+        <v>73391.933403000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.386648</v>
+        <v>20.386648000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1541.910000</v>
+        <v>1541.91</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.177000</v>
+        <v>-608.17700000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>73403.133595</v>
+        <v>73403.133595000007</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.389759</v>
+        <v>20.389759000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1698.090000</v>
+        <v>1698.09</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1044.980000</v>
+        <v>-1044.98</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>73414.800462</v>
+        <v>73414.800461999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.393000</v>
+        <v>20.393000000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1994.480000</v>
+        <v>1994.48</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1798.650000</v>
+        <v>-1798.65</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>73425.589967</v>
+        <v>73425.589967000007</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.395997</v>
+        <v>20.395997000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2385.510000</v>
+        <v>2385.5100000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2665.060000</v>
+        <v>-2665.06</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>73436.730576</v>
+        <v>73436.730576000002</v>
       </c>
       <c r="BY7" s="1">
         <v>20.399092</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2866.380000</v>
+        <v>2866.38</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3604.620000</v>
+        <v>-3604.62</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>73448.550240</v>
+        <v>73448.550239999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.402375</v>
+        <v>20.402374999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4267.310000</v>
+        <v>4267.3100000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5861.570000</v>
+        <v>-5861.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>73275.890884</v>
+        <v>73275.890883999993</v>
       </c>
       <c r="B8" s="1">
-        <v>20.354414</v>
+        <v>20.354413999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.220000</v>
+        <v>1248.22</v>
       </c>
       <c r="D8" s="1">
-        <v>-299.724000</v>
+        <v>-299.72399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>73286.296950</v>
+        <v>73286.296950000004</v>
       </c>
       <c r="G8" s="1">
         <v>20.357305</v>
       </c>
       <c r="H8" s="1">
-        <v>1272.980000</v>
+        <v>1272.98</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.022000</v>
+        <v>-261.02199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>73296.833464</v>
+        <v>73296.833463999996</v>
       </c>
       <c r="L8" s="1">
         <v>20.360232</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.585000</v>
+        <v>-201.58500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>73307.071388</v>
+        <v>73307.071387999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.363075</v>
+        <v>20.363074999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.810000</v>
+        <v>1319.81</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.310000</v>
+        <v>-184.31</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>73317.676381</v>
+        <v>73317.676380999997</v>
       </c>
       <c r="V8" s="1">
         <v>20.366021</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.730000</v>
+        <v>1333.73</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.687000</v>
+        <v>-171.68700000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>73327.871119</v>
+        <v>73327.871119000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.368853</v>
+        <v>20.368853000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.990000</v>
+        <v>1351.99</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.218000</v>
+        <v>-170.21799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>73338.110065</v>
+        <v>73338.110065000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.371697</v>
+        <v>20.371697000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1365.590000</v>
+        <v>1365.59</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.157000</v>
+        <v>-180.15700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>73348.300838</v>
+        <v>73348.300837999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.374528</v>
+        <v>20.374528000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1387.140000</v>
+        <v>1387.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.846000</v>
+        <v>-209.846</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>73358.969814</v>
+        <v>73358.969813999996</v>
       </c>
       <c r="AP8" s="1">
         <v>20.377492</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.278000</v>
+        <v>-253.27799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>73370.286007</v>
+        <v>73370.286007000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.380635</v>
+        <v>20.380635000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.472000</v>
+        <v>-312.47199999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>73381.326456</v>
+        <v>73381.326455999995</v>
       </c>
       <c r="AZ8" s="1">
         <v>20.383702</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.831000</v>
+        <v>-363.83100000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>73392.371385</v>
+        <v>73392.371385000006</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.386770</v>
+        <v>20.386769999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1541.920000</v>
+        <v>1541.92</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.138000</v>
+        <v>-608.13800000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>73403.535323</v>
+        <v>73403.535323000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.389871</v>
+        <v>20.389870999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1698.170000</v>
+        <v>1698.17</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1044.760000</v>
+        <v>-1044.76</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>73415.194780</v>
+        <v>73415.194780000005</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.393110</v>
+        <v>20.39311</v>
       </c>
       <c r="BP8" s="1">
-        <v>1994.450000</v>
+        <v>1994.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1798.670000</v>
+        <v>-1798.67</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>73426.020462</v>
@@ -2233,225 +2649,225 @@
         <v>20.396117</v>
       </c>
       <c r="BU8" s="1">
-        <v>2385.590000</v>
+        <v>2385.59</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2665.300000</v>
+        <v>-2665.3</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>73437.161599</v>
+        <v>73437.161598999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.399212</v>
+        <v>20.399211999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2866.310000</v>
+        <v>2866.31</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3605.010000</v>
+        <v>-3605.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>73449.069055</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.402519</v>
+        <v>20.402519000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.340000</v>
+        <v>4282.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5861.530000</v>
+        <v>-5861.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>73276.224693</v>
+        <v>73276.224692999996</v>
       </c>
       <c r="B9" s="1">
-        <v>20.354507</v>
+        <v>20.354507000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-299.928000</v>
+        <v>-299.928</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>73286.641671</v>
+        <v>73286.641671000005</v>
       </c>
       <c r="G9" s="1">
-        <v>20.357400</v>
+        <v>20.357399999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.410000</v>
+        <v>1272.4100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.453000</v>
+        <v>-260.45299999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>73297.177193</v>
+        <v>73297.177192999996</v>
       </c>
       <c r="L9" s="1">
-        <v>20.360327</v>
+        <v>20.360327000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.480000</v>
+        <v>1307.48</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.430000</v>
+        <v>-201.43</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>73307.767802</v>
+        <v>73307.767802000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.363269</v>
+        <v>20.363268999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.242000</v>
+        <v>-184.24199999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>73318.022061</v>
+        <v>73318.022060999996</v>
       </c>
       <c r="V9" s="1">
-        <v>20.366117</v>
+        <v>20.366116999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.670000</v>
+        <v>1333.67</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.591000</v>
+        <v>-171.59100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>73328.220304</v>
+        <v>73328.220304000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.368950</v>
+        <v>20.368950000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.930000</v>
+        <v>1351.93</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.113000</v>
+        <v>-170.113</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>73338.452274</v>
+        <v>73338.452273999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.371792</v>
+        <v>20.371791999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1365.580000</v>
+        <v>1365.58</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.172000</v>
+        <v>-180.172</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>73348.647540</v>
+        <v>73348.647540000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.374624</v>
+        <v>20.374624000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1387.150000</v>
+        <v>1387.15</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.851000</v>
+        <v>-209.851</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>73359.643845</v>
+        <v>73359.643844999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.377679</v>
+        <v>20.377679000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.243000</v>
+        <v>-253.24299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>73370.704630</v>
+        <v>73370.704629999993</v>
       </c>
       <c r="AU9" s="1">
         <v>20.380751</v>
       </c>
       <c r="AV9" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.456000</v>
+        <v>-312.45600000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>73381.722263</v>
+        <v>73381.722263000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.383812</v>
+        <v>20.383811999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.930000</v>
+        <v>1454.93</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.810000</v>
+        <v>-363.81</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>73392.728490</v>
+        <v>73392.728489999994</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.386869</v>
+        <v>20.386869000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1541.900000</v>
+        <v>1541.9</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.133000</v>
+        <v>-608.13300000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>73403.910827</v>
@@ -2460,4444 +2876,4445 @@
         <v>20.389975</v>
       </c>
       <c r="BK9" s="1">
-        <v>1698.050000</v>
+        <v>1698.05</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1044.990000</v>
+        <v>-1044.99</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>73415.621340</v>
+        <v>73415.621339999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.393228</v>
+        <v>20.393228000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1994.510000</v>
+        <v>1994.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1798.660000</v>
+        <v>-1798.66</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>73426.455949</v>
+        <v>73426.455948999996</v>
       </c>
       <c r="BT9" s="1">
         <v>20.396238</v>
       </c>
       <c r="BU9" s="1">
-        <v>2385.370000</v>
+        <v>2385.37</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2665.320000</v>
+        <v>-2665.32</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>73437.583694</v>
+        <v>73437.583694000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.399329</v>
+        <v>20.399329000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2866.130000</v>
+        <v>2866.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3605.300000</v>
+        <v>-3605.3</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>73449.587870</v>
+        <v>73449.587870000003</v>
       </c>
       <c r="CD9" s="1">
         <v>20.402663</v>
       </c>
       <c r="CE9" s="1">
-        <v>4279.210000</v>
+        <v>4279.21</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5864.710000</v>
+        <v>-5864.71</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>73276.570899</v>
+        <v>73276.570898999998</v>
       </c>
       <c r="B10" s="1">
-        <v>20.354603</v>
+        <v>20.354603000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.490000</v>
+        <v>1248.49</v>
       </c>
       <c r="D10" s="1">
-        <v>-299.752000</v>
+        <v>-299.75200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>73287.336565</v>
+        <v>73287.336565000005</v>
       </c>
       <c r="G10" s="1">
-        <v>20.357593</v>
+        <v>20.357593000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.930000</v>
+        <v>1272.93</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.600000</v>
+        <v>-260.60000000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>73297.866631</v>
+        <v>73297.866630999997</v>
       </c>
       <c r="L10" s="1">
         <v>20.360519</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.526000</v>
+        <v>-201.52600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>73308.116953</v>
+        <v>73308.116953000004</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.363366</v>
+        <v>20.363365999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.366000</v>
+        <v>-184.36600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>73318.371243</v>
+        <v>73318.371243000001</v>
       </c>
       <c r="V10" s="1">
-        <v>20.366214</v>
+        <v>20.366213999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.570000</v>
+        <v>1333.57</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.647000</v>
+        <v>-171.64699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>73328.567008</v>
+        <v>73328.567007999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.369046</v>
+        <v>20.369046000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.092000</v>
+        <v>-170.09200000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>73339.112449</v>
+        <v>73339.112448999993</v>
       </c>
       <c r="AF10" s="1">
         <v>20.371976</v>
       </c>
       <c r="AG10" s="1">
-        <v>1365.580000</v>
+        <v>1365.58</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.142000</v>
+        <v>-180.142</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>73349.343732</v>
+        <v>73349.343731999994</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.374818</v>
+        <v>20.374818000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1387.170000</v>
+        <v>1387.17</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.855000</v>
+        <v>-209.85499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>73360.067429</v>
+        <v>73360.067429000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.377797</v>
+        <v>20.377797000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1409.680000</v>
+        <v>1409.68</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.222000</v>
+        <v>-253.22200000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>73371.068694</v>
+        <v>73371.068694000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.380852</v>
+        <v>20.380852000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.030000</v>
+        <v>1435.03</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.438000</v>
+        <v>-312.43799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>73382.081405</v>
+        <v>73382.081405000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.383912</v>
+        <v>20.383911999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.900000</v>
+        <v>1454.9</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.783000</v>
+        <v>-363.78300000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>73393.092553</v>
+        <v>73393.092552999995</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.386970</v>
+        <v>20.386970000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.139000</v>
+        <v>-608.13900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>73404.351274</v>
+        <v>73404.351274000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>20.390098</v>
+        <v>20.390097999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1698.070000</v>
+        <v>1698.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1044.760000</v>
+        <v>-1044.76</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>73416.013183</v>
+        <v>73416.013183000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.393337</v>
+        <v>20.393336999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1994.550000</v>
+        <v>1994.55</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1798.550000</v>
+        <v>-1798.55</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>73426.851756</v>
+        <v>73426.851756000004</v>
       </c>
       <c r="BT10" s="1">
         <v>20.396348</v>
       </c>
       <c r="BU10" s="1">
-        <v>2385.680000</v>
+        <v>2385.6799999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2665.510000</v>
+        <v>-2665.51</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>73438.007805</v>
+        <v>73438.007805000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.399447</v>
+        <v>20.399446999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2866.180000</v>
+        <v>2866.18</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3605.290000</v>
+        <v>-3605.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>73450.138958</v>
+        <v>73450.138957999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.402816</v>
+        <v>20.402816000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4269.410000</v>
+        <v>4269.41</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5862.690000</v>
+        <v>-5862.69</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>73277.254385</v>
+        <v>73277.254384999993</v>
       </c>
       <c r="B11" s="1">
-        <v>20.354793</v>
+        <v>20.354793000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.460000</v>
+        <v>1248.46</v>
       </c>
       <c r="D11" s="1">
-        <v>-299.825000</v>
+        <v>-299.82499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>73287.688229</v>
+        <v>73287.688229000007</v>
       </c>
       <c r="G11" s="1">
-        <v>20.357691</v>
+        <v>20.357690999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.970000</v>
+        <v>1271.97</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.239000</v>
+        <v>-260.23899999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>73298.215134</v>
+        <v>73298.215133999998</v>
       </c>
       <c r="L11" s="1">
-        <v>20.360615</v>
+        <v>20.360614999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.620000</v>
+        <v>1307.6199999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.282000</v>
+        <v>-201.28200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>73308.461672</v>
+        <v>73308.461672000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.363462</v>
+        <v>20.363461999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.373000</v>
+        <v>-184.37299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>73319.030955</v>
+        <v>73319.030954999995</v>
       </c>
       <c r="V11" s="1">
-        <v>20.366397</v>
+        <v>20.366396999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.630000</v>
+        <v>1333.63</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.551000</v>
+        <v>-171.55099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>73329.228173</v>
+        <v>73329.228172999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.369230</v>
+        <v>20.369230000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1352.030000</v>
+        <v>1352.03</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.139000</v>
+        <v>-170.13900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>73339.485441</v>
+        <v>73339.485440999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.372079</v>
+        <v>20.372078999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1365.540000</v>
+        <v>1365.54</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.274000</v>
+        <v>-180.274</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>73349.693819</v>
+        <v>73349.693818999993</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.374915</v>
+        <v>20.374915000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1387.130000</v>
+        <v>1387.13</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.877000</v>
+        <v>-209.87700000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>73360.428548</v>
+        <v>73360.428547999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.377897</v>
+        <v>20.377897000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1409.630000</v>
+        <v>1409.63</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.252000</v>
+        <v>-253.25200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>73371.433253</v>
+        <v>73371.433252999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.380954</v>
+        <v>20.380953999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.448000</v>
+        <v>-312.44799999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>73382.516390</v>
+        <v>73382.516390000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.384032</v>
+        <v>20.384032000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.900000</v>
+        <v>1454.9</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.837000</v>
+        <v>-363.83699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>73393.524072</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.387090</v>
+        <v>20.387090000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1541.900000</v>
+        <v>1541.9</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.133000</v>
+        <v>-608.13300000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>73404.671658</v>
+        <v>73404.671658000007</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.390187</v>
+        <v>20.390187000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1698.010000</v>
+        <v>1698.01</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1044.860000</v>
+        <v>-1044.8599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>73416.433291</v>
+        <v>73416.433290999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.393454</v>
+        <v>20.393453999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1994.660000</v>
+        <v>1994.66</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1798.510000</v>
+        <v>-1798.51</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>73427.267931</v>
+        <v>73427.267930999995</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.396463</v>
+        <v>20.396463000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2385.370000</v>
+        <v>2385.37</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2665.450000</v>
+        <v>-2665.45</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>73438.461117</v>
+        <v>73438.461116999999</v>
       </c>
       <c r="BY11" s="1">
         <v>20.399573</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2865.920000</v>
+        <v>2865.92</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3604.560000</v>
+        <v>-3604.56</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>73450.670668</v>
+        <v>73450.670668000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.402964</v>
+        <v>20.402964000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4283.690000</v>
+        <v>4283.6899999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5857.200000</v>
+        <v>-5857.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>73277.597154</v>
+        <v>73277.597154000003</v>
       </c>
       <c r="B12" s="1">
-        <v>20.354888</v>
+        <v>20.354887999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1248.460000</v>
+        <v>1248.46</v>
       </c>
       <c r="D12" s="1">
-        <v>-299.553000</v>
+        <v>-299.553</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>73288.034436</v>
+        <v>73288.034436000002</v>
       </c>
       <c r="G12" s="1">
-        <v>20.357787</v>
+        <v>20.357786999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.100000</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.531000</v>
+        <v>-260.53100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>73298.558551</v>
+        <v>73298.558550999995</v>
       </c>
       <c r="L12" s="1">
-        <v>20.360711</v>
+        <v>20.360710999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.720000</v>
+        <v>1307.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.174000</v>
+        <v>-201.17400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>73309.134287</v>
+        <v>73309.134286999993</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.363648</v>
+        <v>20.363648000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.800000</v>
+        <v>1319.8</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.319000</v>
+        <v>-184.31899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>73319.399946</v>
+        <v>73319.399946000005</v>
       </c>
       <c r="V12" s="1">
-        <v>20.366500</v>
+        <v>20.366499999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.780000</v>
+        <v>1333.78</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.739000</v>
+        <v>-171.739</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>73329.617567</v>
+        <v>73329.617566999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.369338</v>
+        <v>20.369337999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.990000</v>
+        <v>1351.99</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.287000</v>
+        <v>-170.28700000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>73339.829167</v>
+        <v>73339.829167000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.372175</v>
+        <v>20.372174999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1365.700000</v>
+        <v>1365.7</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.069000</v>
+        <v>-180.06899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>73350.047250</v>
+        <v>73350.047250000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.375013</v>
+        <v>20.375012999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1387.140000</v>
+        <v>1387.14</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.851000</v>
+        <v>-209.851</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>73360.788611</v>
+        <v>73360.788610999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.377997</v>
+        <v>20.377997000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1409.610000</v>
+        <v>1409.61</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.245000</v>
+        <v>-253.245</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>73371.856837</v>
+        <v>73371.856836999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.381071</v>
+        <v>20.381070999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1435.030000</v>
+        <v>1435.03</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.452000</v>
+        <v>-312.452</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>73382.796600</v>
+        <v>73382.796600000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.384110</v>
+        <v>20.38411</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.821000</v>
+        <v>-363.82100000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>73393.812781</v>
+        <v>73393.812781000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.387170</v>
+        <v>20.387170000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1541.870000</v>
+        <v>1541.87</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.107000</v>
+        <v>-608.10699999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>73405.061017</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.390295</v>
+        <v>20.390294999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1698.110000</v>
+        <v>1698.11</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1044.800000</v>
+        <v>-1044.8</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>73416.828639</v>
+        <v>73416.828638999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.393564</v>
+        <v>20.393564000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1994.520000</v>
+        <v>1994.52</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1798.580000</v>
+        <v>-1798.58</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>73427.680075</v>
+        <v>73427.680074999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.396578</v>
+        <v>20.396578000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2385.190000</v>
+        <v>2385.19</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2665.540000</v>
+        <v>-2665.54</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>73439.326635</v>
+        <v>73439.326635000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.399813</v>
+        <v>20.399813000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2866.050000</v>
+        <v>2866.05</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3604.670000</v>
+        <v>-3604.67</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>73451.186973</v>
+        <v>73451.186973000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.403107</v>
+        <v>20.403106999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.780000</v>
+        <v>4275.78</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5842.000000</v>
+        <v>-5842</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>73277.937873</v>
+        <v>73277.937873000003</v>
       </c>
       <c r="B13" s="1">
-        <v>20.354983</v>
+        <v>20.354983000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1248.230000</v>
+        <v>1248.23</v>
       </c>
       <c r="D13" s="1">
-        <v>-299.247000</v>
+        <v>-299.24700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>73288.680723</v>
+        <v>73288.680722999998</v>
       </c>
       <c r="G13" s="1">
-        <v>20.357967</v>
+        <v>20.357966999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.650000</v>
+        <v>1272.6500000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.537000</v>
+        <v>-260.53699999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>73299.256421</v>
+        <v>73299.256420999998</v>
       </c>
       <c r="L13" s="1">
-        <v>20.360905</v>
+        <v>20.360904999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.282000</v>
+        <v>-201.28200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>73309.508727</v>
+        <v>73309.508726999993</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.363752</v>
+        <v>20.363752000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.850000</v>
+        <v>1319.85</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.309000</v>
+        <v>-184.309</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>73319.743177</v>
+        <v>73319.743176999997</v>
       </c>
       <c r="V13" s="1">
         <v>20.366595</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.610000</v>
+        <v>1333.61</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.710000</v>
+        <v>-171.71</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>73329.965724</v>
+        <v>73329.965723999994</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.369435</v>
+        <v>20.369434999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.265000</v>
+        <v>-170.26499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>73340.178880</v>
+        <v>73340.178880000007</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.372272</v>
+        <v>20.372271999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1365.520000</v>
+        <v>1365.52</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.110000</v>
+        <v>-180.11</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>73350.489681</v>
+        <v>73350.489681000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.375136</v>
+        <v>20.375136000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1387.110000</v>
+        <v>1387.11</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.857000</v>
+        <v>-209.857</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>73361.221619</v>
+        <v>73361.221619000004</v>
       </c>
       <c r="AP13" s="1">
         <v>20.378117</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.245000</v>
+        <v>-253.245</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>73372.163861</v>
+        <v>73372.163860999994</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.381157</v>
+        <v>20.381157000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.030000</v>
+        <v>1435.03</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.419000</v>
+        <v>-312.41899999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>73383.156198</v>
+        <v>73383.156197999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.384210</v>
+        <v>20.384209999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.880000</v>
+        <v>1454.88</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.819000</v>
+        <v>-363.81900000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>73394.174855</v>
+        <v>73394.174855000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.387271</v>
+        <v>20.387270999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1541.930000</v>
+        <v>1541.93</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.112000</v>
+        <v>-608.11199999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>73405.437985</v>
+        <v>73405.437984999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.390399</v>
+        <v>20.390398999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1697.910000</v>
+        <v>1697.91</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1044.880000</v>
+        <v>-1044.8800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>73417.258137</v>
+        <v>73417.258136999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.393683</v>
+        <v>20.393682999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1994.450000</v>
+        <v>1994.45</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1798.520000</v>
+        <v>-1798.52</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>73428.109115</v>
+        <v>73428.109114999999</v>
       </c>
       <c r="BT13" s="1">
         <v>20.396697</v>
       </c>
       <c r="BU13" s="1">
-        <v>2385.120000</v>
+        <v>2385.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2665.600000</v>
+        <v>-2665.6</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>73439.772043</v>
+        <v>73439.772043000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.399937</v>
+        <v>20.399937000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2865.810000</v>
+        <v>2865.81</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3604.960000</v>
+        <v>-3604.96</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>73451.707275</v>
+        <v>73451.707274999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.403252</v>
+        <v>20.403251999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>4262.160000</v>
+        <v>4262.16</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5852.720000</v>
+        <v>-5852.72</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>73278.606513</v>
+        <v>73278.606513000006</v>
       </c>
       <c r="B14" s="1">
-        <v>20.355168</v>
+        <v>20.355167999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-299.683000</v>
+        <v>-299.68299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>73289.070084</v>
+        <v>73289.070084000006</v>
       </c>
       <c r="G14" s="1">
-        <v>20.358075</v>
+        <v>20.358074999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.530000</v>
+        <v>1272.53</v>
       </c>
       <c r="I14" s="1">
-        <v>-259.891000</v>
+        <v>-259.89100000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>73299.596180</v>
+        <v>73299.596179999993</v>
       </c>
       <c r="L14" s="1">
         <v>20.360999</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.800000</v>
+        <v>1307.8</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.475000</v>
+        <v>-201.47499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>73309.859906</v>
+        <v>73309.859905999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.363850</v>
+        <v>20.363849999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.850000</v>
+        <v>1319.85</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.189000</v>
+        <v>-184.18899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>73320.090873</v>
+        <v>73320.090872999994</v>
       </c>
       <c r="V14" s="1">
         <v>20.366692</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.690000</v>
+        <v>1333.69</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.799000</v>
+        <v>-171.79900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>73330.315406</v>
+        <v>73330.315405999994</v>
       </c>
       <c r="AA14" s="1">
         <v>20.369532</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.930000</v>
+        <v>1351.93</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.088000</v>
+        <v>-170.08799999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>73340.611358</v>
+        <v>73340.611357999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.372392</v>
+        <v>20.372392000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1365.680000</v>
+        <v>1365.68</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.123000</v>
+        <v>-180.12299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>73350.753057</v>
+        <v>73350.753056999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.375209</v>
+        <v>20.375209000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1387.120000</v>
+        <v>1387.12</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.868000</v>
+        <v>-209.86799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>73361.508803</v>
+        <v>73361.508803000004</v>
       </c>
       <c r="AP14" s="1">
         <v>20.378197</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.241000</v>
+        <v>-253.24100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>73372.528452</v>
+        <v>73372.528451999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.381258</v>
+        <v>20.381257999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.070000</v>
+        <v>1435.07</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.469000</v>
+        <v>-312.46899999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>73383.515807</v>
+        <v>73383.515807000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.384310</v>
+        <v>20.384309999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.880000</v>
+        <v>1454.88</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.806000</v>
+        <v>-363.80599999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>73394.536407</v>
+        <v>73394.536407000007</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.387371</v>
+        <v>20.387371000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.059000</v>
+        <v>-608.05899999999997</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>73406.187433</v>
+        <v>73406.187432999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.390608</v>
       </c>
       <c r="BK14" s="1">
-        <v>1698.160000</v>
+        <v>1698.16</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1044.720000</v>
+        <v>-1044.72</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>73417.647010</v>
+        <v>73417.647010000001</v>
       </c>
       <c r="BO14" s="1">
         <v>20.393791</v>
       </c>
       <c r="BP14" s="1">
-        <v>1994.490000</v>
+        <v>1994.49</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1798.440000</v>
+        <v>-1798.44</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>73428.509418</v>
+        <v>73428.509418000001</v>
       </c>
       <c r="BT14" s="1">
         <v>20.396808</v>
       </c>
       <c r="BU14" s="1">
-        <v>2384.810000</v>
+        <v>2384.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2665.890000</v>
+        <v>-2665.89</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>73440.193642</v>
+        <v>73440.193641999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.400054</v>
+        <v>20.400054000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2866.190000</v>
+        <v>2866.19</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3605.380000</v>
+        <v>-3605.38</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>73452.536620</v>
+        <v>73452.536619999999</v>
       </c>
       <c r="CD14" s="1">
         <v>20.403482</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.600000</v>
+        <v>4275.6000000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5862.840000</v>
+        <v>-5862.84</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>73278.960129</v>
+        <v>73278.960128999999</v>
       </c>
       <c r="B15" s="1">
-        <v>20.355267</v>
+        <v>20.355267000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.400000</v>
+        <v>1248.4000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-299.558000</v>
+        <v>-299.55799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>73289.410833</v>
+        <v>73289.410833000002</v>
       </c>
       <c r="G15" s="1">
-        <v>20.358170</v>
+        <v>20.358170000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.930000</v>
+        <v>1272.93</v>
       </c>
       <c r="I15" s="1">
-        <v>-259.568000</v>
+        <v>-259.56799999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>73299.941396</v>
+        <v>73299.941395999995</v>
       </c>
       <c r="L15" s="1">
-        <v>20.361095</v>
+        <v>20.361094999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.740000</v>
+        <v>1307.74</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.467000</v>
+        <v>-201.46700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>73310.210071</v>
+        <v>73310.210070999994</v>
       </c>
       <c r="Q15" s="1">
         <v>20.363947</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.305000</v>
+        <v>-184.30500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>73320.523385</v>
+        <v>73320.523384999993</v>
       </c>
       <c r="V15" s="1">
-        <v>20.366812</v>
+        <v>20.366811999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.623000</v>
+        <v>-171.62299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>73330.746427</v>
+        <v>73330.746427000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.369652</v>
+        <v>20.369651999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1352.010000</v>
+        <v>1352.01</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.242000</v>
+        <v>-170.24199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>73340.881677</v>
+        <v>73340.881676999998</v>
       </c>
       <c r="AF15" s="1">
         <v>20.372467</v>
       </c>
       <c r="AG15" s="1">
-        <v>1365.570000</v>
+        <v>1365.57</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.994000</v>
+        <v>-179.994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>73351.099792</v>
+        <v>73351.099791999994</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.375305</v>
+        <v>20.375305000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1387.140000</v>
+        <v>1387.14</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.860000</v>
+        <v>-209.86</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>73361.870882</v>
+        <v>73361.870882000003</v>
       </c>
       <c r="AP15" s="1">
         <v>20.378297</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1409.620000</v>
+        <v>1409.62</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.245000</v>
+        <v>-253.245</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>73372.892979</v>
+        <v>73372.892978999997</v>
       </c>
       <c r="AU15" s="1">
         <v>20.381359</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.050000</v>
+        <v>1435.05</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.457000</v>
+        <v>-312.45699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>73384.236484</v>
+        <v>73384.236483999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.384510</v>
+        <v>20.384509999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.890000</v>
+        <v>1454.89</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.801000</v>
+        <v>-363.80099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>73395.257590</v>
+        <v>73395.257589999994</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.387572</v>
+        <v>20.387571999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1541.910000</v>
+        <v>1541.91</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.102000</v>
+        <v>-608.10199999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>73406.561944</v>
+        <v>73406.561944000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.390712</v>
+        <v>20.390712000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1698.120000</v>
+        <v>1698.12</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1044.870000</v>
+        <v>-1044.8699999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>73418.071082</v>
+        <v>73418.071081999995</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.393909</v>
+        <v>20.393909000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1994.420000</v>
+        <v>1994.42</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1798.410000</v>
+        <v>-1798.41</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>73428.926025</v>
+        <v>73428.926024999993</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.396924</v>
+        <v>20.396923999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2384.930000</v>
+        <v>2384.9299999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2666.070000</v>
+        <v>-2666.07</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>73440.942601</v>
+        <v>73440.942601000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.400262</v>
+        <v>20.400262000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2866.540000</v>
+        <v>2866.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3604.780000</v>
+        <v>-3604.78</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>73452.741434</v>
+        <v>73452.741433999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.403539</v>
+        <v>20.403538999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4281.230000</v>
+        <v>4281.2299999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5846.350000</v>
+        <v>-5846.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>73279.305343</v>
       </c>
       <c r="B16" s="1">
-        <v>20.355363</v>
+        <v>20.355363000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-299.908000</v>
+        <v>-299.90800000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>73289.762993</v>
+        <v>73289.762992999997</v>
       </c>
       <c r="G16" s="1">
-        <v>20.358267</v>
+        <v>20.358267000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.420000</v>
+        <v>1272.42</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.272000</v>
+        <v>-260.27199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>73300.379395</v>
+        <v>73300.379394999996</v>
       </c>
       <c r="L16" s="1">
-        <v>20.361216</v>
+        <v>20.361215999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.552000</v>
+        <v>-201.55199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>73310.642086</v>
+        <v>73310.642086000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.364067</v>
+        <v>20.364066999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.840000</v>
+        <v>1319.84</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.328000</v>
+        <v>-184.328</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>73320.786761</v>
+        <v>73320.786760999996</v>
       </c>
       <c r="V16" s="1">
         <v>20.366885</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.660000</v>
+        <v>1333.66</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.734000</v>
+        <v>-171.73400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>73331.021707</v>
+        <v>73331.021707000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.369728</v>
+        <v>20.369727999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.950000</v>
+        <v>1351.95</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.231000</v>
+        <v>-170.23099999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>73341.224414</v>
+        <v>73341.224413999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.372562</v>
+        <v>20.372561999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1365.650000</v>
+        <v>1365.65</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.184000</v>
+        <v>-180.184</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>73351.446992</v>
+        <v>73351.446991999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.375402</v>
+        <v>20.375402000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1387.140000</v>
+        <v>1387.14</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.860000</v>
+        <v>-209.86</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>73362.226515</v>
+        <v>73362.226515000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.378396</v>
+        <v>20.378395999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.222000</v>
+        <v>-253.22200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>73373.618162</v>
+        <v>73373.618161999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.381561</v>
+        <v>20.381561000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1435.030000</v>
+        <v>1435.03</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.443000</v>
+        <v>-312.44299999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>73384.613444</v>
+        <v>73384.613444000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.384615</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.900000</v>
+        <v>1454.9</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.817000</v>
+        <v>-363.81700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>73395.618195</v>
+        <v>73395.618195000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.387672</v>
+        <v>20.387671999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1541.920000</v>
+        <v>1541.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.108000</v>
+        <v>-608.10799999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>73406.938665</v>
+        <v>73406.938664999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.390816</v>
+        <v>20.390816000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1698.060000</v>
+        <v>1698.06</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1044.640000</v>
+        <v>-1044.6400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>73418.787799</v>
+        <v>73418.787798999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.394108</v>
+        <v>20.394107999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1994.400000</v>
+        <v>1994.4</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1798.410000</v>
+        <v>-1798.41</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>73429.652665</v>
+        <v>73429.652665000001</v>
       </c>
       <c r="BT16" s="1">
         <v>20.397126</v>
       </c>
       <c r="BU16" s="1">
-        <v>2384.520000</v>
+        <v>2384.52</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2665.830000</v>
+        <v>-2665.83</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>73441.063130</v>
+        <v>73441.063129999995</v>
       </c>
       <c r="BY16" s="1">
         <v>20.400295</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2866.420000</v>
+        <v>2866.42</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3604.370000</v>
+        <v>-3604.37</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>73453.257306</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.403683</v>
+        <v>20.403683000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4282.980000</v>
+        <v>4282.9799999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5847.860000</v>
+        <v>-5847.86</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>73279.649107</v>
+        <v>73279.649107000005</v>
       </c>
       <c r="B17" s="1">
-        <v>20.355458</v>
+        <v>20.355457999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.380000</v>
+        <v>1248.3800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-299.574000</v>
+        <v>-299.57400000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>73290.202945</v>
+        <v>73290.202944999997</v>
       </c>
       <c r="G17" s="1">
-        <v>20.358390</v>
+        <v>20.35839</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.880000</v>
+        <v>1272.8800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.607000</v>
+        <v>-260.60700000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>73300.653651</v>
+        <v>73300.653651000001</v>
       </c>
       <c r="L17" s="1">
         <v>20.361293</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.910000</v>
+        <v>1307.9100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.134000</v>
+        <v>-201.13399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>73310.914398</v>
+        <v>73310.914397999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.364143</v>
+        <v>20.364142999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.325000</v>
+        <v>-184.32499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>73321.129992</v>
+        <v>73321.129992000002</v>
       </c>
       <c r="V17" s="1">
-        <v>20.366981</v>
+        <v>20.366980999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.559000</v>
+        <v>-171.559</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>73331.372876</v>
+        <v>73331.372875999994</v>
       </c>
       <c r="AA17" s="1">
         <v>20.369826</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.230000</v>
+        <v>-170.23</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>73341.567683</v>
+        <v>73341.567683000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.372658</v>
+        <v>20.372658000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.580000</v>
+        <v>1365.58</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.101000</v>
+        <v>-180.101</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>73352.145824</v>
+        <v>73352.145824000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.375596</v>
+        <v>20.375596000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1387.170000</v>
+        <v>1387.17</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.856000</v>
+        <v>-209.85599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>73362.950675</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.378597</v>
+        <v>20.378596999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1409.630000</v>
+        <v>1409.63</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.239000</v>
+        <v>-253.239</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>73374.013938</v>
+        <v>73374.013938000004</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.381671</v>
+        <v>20.381671000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.452000</v>
+        <v>-312.452</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>73384.991395</v>
+        <v>73384.991395000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.384720</v>
+        <v>20.384720000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.782000</v>
+        <v>-363.78199999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>73395.977782</v>
+        <v>73395.977782000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.387772</v>
+        <v>20.387771999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1541.920000</v>
+        <v>1541.92</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.069000</v>
+        <v>-608.06899999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>73407.622855</v>
+        <v>73407.622854999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.391006</v>
+        <v>20.391006000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1698.130000</v>
+        <v>1698.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1044.810000</v>
+        <v>-1044.81</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>73418.897416</v>
+        <v>73418.897416000007</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.394138</v>
+        <v>20.394138000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1994.510000</v>
+        <v>1994.51</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1798.440000</v>
+        <v>-1798.44</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>73429.773690</v>
+        <v>73429.773690000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.397159</v>
+        <v>20.397158999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2384.310000</v>
+        <v>2384.31</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2665.880000</v>
+        <v>-2665.88</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>73441.492665</v>
+        <v>73441.492664999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.400415</v>
+        <v>20.400414999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2865.820000</v>
+        <v>2865.82</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3604.430000</v>
+        <v>-3604.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>73453.810808</v>
+        <v>73453.810807999995</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.403836</v>
+        <v>20.403835999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4277.970000</v>
+        <v>4277.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5861.140000</v>
+        <v>-5861.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>73280.074638</v>
+        <v>73280.074638000006</v>
       </c>
       <c r="B18" s="1">
-        <v>20.355576</v>
+        <v>20.355575999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="D18" s="1">
-        <v>-299.709000</v>
+        <v>-299.709</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>73290.467808</v>
+        <v>73290.467808000001</v>
       </c>
       <c r="G18" s="1">
         <v>20.358463</v>
       </c>
       <c r="H18" s="1">
-        <v>1272.430000</v>
+        <v>1272.43</v>
       </c>
       <c r="I18" s="1">
-        <v>-259.589000</v>
+        <v>-259.589</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>73300.996388</v>
       </c>
       <c r="L18" s="1">
-        <v>20.361388</v>
+        <v>20.361388000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.267000</v>
+        <v>-201.267</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>73311.264565</v>
+        <v>73311.264565000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.364240</v>
+        <v>20.364239999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.810000</v>
+        <v>1319.81</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.373000</v>
+        <v>-184.37299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>73321.474248</v>
+        <v>73321.474247999999</v>
       </c>
       <c r="V18" s="1">
-        <v>20.367076</v>
+        <v>20.367076000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.680000</v>
+        <v>1333.68</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.605000</v>
+        <v>-171.60499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>73331.723059</v>
+        <v>73331.723058999996</v>
       </c>
       <c r="AA18" s="1">
         <v>20.369923</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.940000</v>
+        <v>1351.94</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.198000</v>
+        <v>-170.19800000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>73342.256092</v>
+        <v>73342.256091999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.372849</v>
+        <v>20.372848999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1365.580000</v>
+        <v>1365.58</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.100000</v>
+        <v>-180.1</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>73352.492527</v>
+        <v>73352.492526999995</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.375692</v>
+        <v>20.375692000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1387.110000</v>
+        <v>1387.11</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.855000</v>
+        <v>-209.85499999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>73363.336560</v>
+        <v>73363.336559999996</v>
       </c>
       <c r="AP18" s="1">
         <v>20.378705</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1409.670000</v>
+        <v>1409.67</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.226000</v>
+        <v>-253.226</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>73374.377506</v>
+        <v>73374.377506000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.381772</v>
+        <v>20.381772000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1435.010000</v>
+        <v>1435.01</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.441000</v>
+        <v>-312.44099999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>73385.669922</v>
+        <v>73385.669922000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.384908</v>
+        <v>20.384907999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.900000</v>
+        <v>1454.9</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.793000</v>
+        <v>-363.79300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>73396.663285</v>
+        <v>73396.663285000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.387962</v>
+        <v>20.387962000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1541.920000</v>
+        <v>1541.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.080000</v>
+        <v>-608.08000000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>73408.065287</v>
+        <v>73408.065287000005</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.391129</v>
+        <v>20.391128999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1698.050000</v>
+        <v>1698.05</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1044.710000</v>
+        <v>-1044.71</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>73419.310583</v>
+        <v>73419.310582999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.394253</v>
+        <v>20.394252999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1994.370000</v>
+        <v>1994.37</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1798.480000</v>
+        <v>-1798.48</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>73430.192312</v>
+        <v>73430.192311999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.397276</v>
+        <v>20.397276000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2384.370000</v>
+        <v>2384.37</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2665.940000</v>
+        <v>-2665.94</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>73441.923688</v>
+        <v>73441.923687999995</v>
       </c>
       <c r="BY18" s="1">
         <v>20.400534</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2865.780000</v>
+        <v>2865.78</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3604.860000</v>
+        <v>-3604.86</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>73454.341529</v>
+        <v>73454.341528999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.403984</v>
+        <v>20.403984000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4277.990000</v>
+        <v>4277.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5843.640000</v>
+        <v>-5843.64</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>73280.350063</v>
+        <v>73280.350063000005</v>
       </c>
       <c r="B19" s="1">
         <v>20.355653</v>
       </c>
       <c r="C19" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="D19" s="1">
-        <v>-299.532000</v>
+        <v>-299.53199999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>73290.811536</v>
+        <v>73290.811535999994</v>
       </c>
       <c r="G19" s="1">
         <v>20.358559</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.960000</v>
+        <v>1271.96</v>
       </c>
       <c r="I19" s="1">
-        <v>-259.475000</v>
+        <v>-259.47500000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>73301.341634</v>
+        <v>73301.341633999997</v>
       </c>
       <c r="L19" s="1">
-        <v>20.361484</v>
+        <v>20.361484000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.520000</v>
+        <v>1307.52</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.184000</v>
+        <v>-201.184</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>73311.602871</v>
+        <v>73311.602870999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.364334</v>
+        <v>20.364333999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.330000</v>
+        <v>-184.33</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>73322.171126</v>
+        <v>73322.171126000001</v>
       </c>
       <c r="V19" s="1">
-        <v>20.367270</v>
+        <v>20.367270000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.650000</v>
+        <v>1333.65</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.821000</v>
+        <v>-171.821</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>73332.420921</v>
+        <v>73332.420920999997</v>
       </c>
       <c r="AA19" s="1">
         <v>20.370117</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.910000</v>
+        <v>1351.91</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.187000</v>
+        <v>-170.18700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>73342.599323</v>
+        <v>73342.599323000002</v>
       </c>
       <c r="AF19" s="1">
         <v>20.372944</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.750000</v>
+        <v>1365.75</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.035000</v>
+        <v>-180.035</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>73352.845197</v>
+        <v>73352.845197000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.375790</v>
+        <v>20.375789999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1387.150000</v>
+        <v>1387.15</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.828000</v>
+        <v>-209.828</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>73363.717984</v>
+        <v>73363.717984000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.378811</v>
+        <v>20.378810999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.236000</v>
+        <v>-253.23599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>73375.060002</v>
+        <v>73375.060001999998</v>
       </c>
       <c r="AU19" s="1">
         <v>20.381961</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.080000</v>
+        <v>1435.08</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.420000</v>
+        <v>-312.42</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>73386.071683</v>
+        <v>73386.071683000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.385020</v>
+        <v>20.385020000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.920000</v>
+        <v>1454.92</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.816000</v>
+        <v>-363.81599999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>73397.086837</v>
+        <v>73397.086836999995</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.388080</v>
+        <v>20.388079999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.080000</v>
+        <v>-608.08000000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>73408.442245</v>
+        <v>73408.442244999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.391234</v>
+        <v>20.391234000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1698.200000</v>
+        <v>1698.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1044.790000</v>
+        <v>-1044.79</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>73419.707414</v>
+        <v>73419.707414000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.394363</v>
+        <v>20.394362999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1994.430000</v>
+        <v>1994.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1798.170000</v>
+        <v>-1798.17</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>73430.624825</v>
+        <v>73430.624825000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.397396</v>
+        <v>20.397396000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2384.210000</v>
+        <v>2384.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2666.080000</v>
+        <v>-2666.08</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>73442.345783</v>
+        <v>73442.345782999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.400652</v>
+        <v>20.400652000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.240000</v>
+        <v>2866.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3604.880000</v>
+        <v>-3604.88</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>73454.858855</v>
+        <v>73454.858854999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.404127</v>
+        <v>20.404126999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4283.680000</v>
+        <v>4283.68</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5850.100000</v>
+        <v>-5850.1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>73280.690175</v>
+        <v>73280.690174999996</v>
       </c>
       <c r="B20" s="1">
-        <v>20.355747</v>
+        <v>20.355747000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1248.510000</v>
+        <v>1248.51</v>
       </c>
       <c r="D20" s="1">
-        <v>-299.568000</v>
+        <v>-299.56799999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>73291.159760</v>
+        <v>73291.159759999995</v>
       </c>
       <c r="G20" s="1">
-        <v>20.358655</v>
+        <v>20.358654999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.530000</v>
+        <v>1272.53</v>
       </c>
       <c r="I20" s="1">
-        <v>-259.875000</v>
+        <v>-259.875</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>73302.038481</v>
+        <v>73302.038480999996</v>
       </c>
       <c r="L20" s="1">
         <v>20.361677</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.610000</v>
+        <v>1307.6099999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.289000</v>
+        <v>-201.28899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>73312.313107</v>
+        <v>73312.313106999994</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.364531</v>
+        <v>20.364530999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.281000</v>
+        <v>-184.28100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>73322.522759</v>
+        <v>73322.522758999999</v>
       </c>
       <c r="V20" s="1">
-        <v>20.367367</v>
+        <v>20.367367000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.610000</v>
+        <v>1333.61</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.640000</v>
+        <v>-171.64</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>73332.772088</v>
+        <v>73332.772087999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.370214</v>
+        <v>20.370214000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.930000</v>
+        <v>1351.93</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.120000</v>
+        <v>-170.12</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>73342.942555</v>
+        <v>73342.942555000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.373040</v>
+        <v>20.37304</v>
       </c>
       <c r="AG20" s="1">
-        <v>1365.530000</v>
+        <v>1365.53</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.042000</v>
+        <v>-180.042</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>73353.507837</v>
+        <v>73353.507836999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.375974</v>
+        <v>20.375973999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1387.130000</v>
+        <v>1387.13</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.836000</v>
+        <v>-209.83600000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>73364.406927</v>
+        <v>73364.406927000004</v>
       </c>
       <c r="AP20" s="1">
         <v>20.379002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1409.640000</v>
+        <v>1409.64</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.232000</v>
+        <v>-253.232</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>73375.472672</v>
+        <v>73375.472672000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.382076</v>
+        <v>20.382076000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.429000</v>
+        <v>-312.42899999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>73386.451619</v>
+        <v>73386.451618999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.385125</v>
+        <v>20.385124999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.920000</v>
+        <v>1454.92</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.759000</v>
+        <v>-363.75900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>73397.476693</v>
+        <v>73397.476693000004</v>
       </c>
       <c r="BE20" s="1">
         <v>20.388188</v>
       </c>
       <c r="BF20" s="1">
-        <v>1541.880000</v>
+        <v>1541.88</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.076000</v>
+        <v>-608.07600000000002</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>73408.818212</v>
+        <v>73408.818211999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.391338</v>
+        <v>20.391338000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1697.940000</v>
+        <v>1697.94</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1044.720000</v>
+        <v>-1044.72</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>73420.143365</v>
+        <v>73420.143364999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.394484</v>
+        <v>20.394483999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1994.540000</v>
+        <v>1994.54</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1798.400000</v>
+        <v>-1798.4</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>73431.465046</v>
+        <v>73431.465045999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.397629</v>
+        <v>20.397628999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>2384.280000</v>
+        <v>2384.2800000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2666.190000</v>
+        <v>-2666.19</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>73442.767416</v>
+        <v>73442.767416000002</v>
       </c>
       <c r="BY20" s="1">
         <v>20.400769</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2865.720000</v>
+        <v>2865.72</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3604.780000</v>
+        <v>-3604.78</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>73455.412390</v>
+        <v>73455.412389999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.404281</v>
+        <v>20.404281000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4279.200000</v>
+        <v>4279.2</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5860.620000</v>
+        <v>-5860.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>73281.032425</v>
+        <v>73281.032424999998</v>
       </c>
       <c r="B21" s="1">
-        <v>20.355842</v>
+        <v>20.355841999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.410000</v>
+        <v>1248.4100000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-299.884000</v>
+        <v>-299.88400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>73291.852639</v>
+        <v>73291.852639000004</v>
       </c>
       <c r="G21" s="1">
-        <v>20.358848</v>
+        <v>20.358847999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.840000</v>
+        <v>1271.8399999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-259.867000</v>
+        <v>-259.86700000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>73302.391633</v>
+        <v>73302.391633000007</v>
       </c>
       <c r="L21" s="1">
-        <v>20.361775</v>
+        <v>20.361775000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.610000</v>
+        <v>1307.6099999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.641000</v>
+        <v>-201.64099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>73312.657858</v>
+        <v>73312.657858000006</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.364627</v>
+        <v>20.364626999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.312000</v>
+        <v>-184.31200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>73322.866982</v>
+        <v>73322.866982000007</v>
       </c>
       <c r="V21" s="1">
-        <v>20.367463</v>
+        <v>20.367463000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.570000</v>
+        <v>1333.57</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.728000</v>
+        <v>-171.72800000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>73333.437719</v>
+        <v>73333.437718999994</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.370399</v>
+        <v>20.370398999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.960000</v>
+        <v>1351.96</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.190000</v>
+        <v>-170.19</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>73343.607194</v>
+        <v>73343.607193999997</v>
       </c>
       <c r="AF21" s="1">
         <v>20.373224</v>
       </c>
       <c r="AG21" s="1">
-        <v>1365.540000</v>
+        <v>1365.54</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.021000</v>
+        <v>-180.02099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>73353.891244</v>
+        <v>73353.891243999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.376081</v>
+        <v>20.376080999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1387.120000</v>
+        <v>1387.12</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.858000</v>
+        <v>-209.858</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>73364.800254</v>
+        <v>73364.800254000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.379111</v>
+        <v>20.379111000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1409.640000</v>
+        <v>1409.64</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.263000</v>
+        <v>-253.26300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>73375.866028</v>
+        <v>73375.866028000004</v>
       </c>
       <c r="AU21" s="1">
         <v>20.382185</v>
       </c>
       <c r="AV21" s="1">
-        <v>1435.040000</v>
+        <v>1435.04</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.433000</v>
+        <v>-312.43299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>73386.828081</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.385230</v>
+        <v>20.38523</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.802000</v>
+        <v>-363.80200000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>73397.835827</v>
+        <v>73397.835827000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.388288</v>
+        <v>20.388287999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1541.880000</v>
+        <v>1541.88</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.056000</v>
+        <v>-608.05600000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>73409.251715</v>
+        <v>73409.251715000006</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.391459</v>
+        <v>20.391459000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1697.960000</v>
+        <v>1697.96</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1044.810000</v>
+        <v>-1044.81</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>73420.528293</v>
+        <v>73420.528292999996</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.394591</v>
+        <v>20.394590999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1994.410000</v>
+        <v>1994.41</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1798.320000</v>
+        <v>-1798.32</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>73431.897061</v>
+        <v>73431.897060999996</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.397749</v>
+        <v>20.397749000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2383.810000</v>
+        <v>2383.81</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2666.060000</v>
+        <v>-2666.06</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>73443.219736</v>
+        <v>73443.219735999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.400894</v>
+        <v>20.400894000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2866.150000</v>
+        <v>2866.15</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3604.520000</v>
+        <v>-3604.52</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>73455.942118</v>
+        <v>73455.942118000006</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.404428</v>
+        <v>20.404427999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4278.330000</v>
+        <v>4278.33</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5842.530000</v>
+        <v>-5842.53</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>73281.711436</v>
+        <v>73281.711435999998</v>
       </c>
       <c r="B22" s="1">
-        <v>20.356031</v>
+        <v>20.356031000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.280000</v>
+        <v>1248.28</v>
       </c>
       <c r="D22" s="1">
-        <v>-299.862000</v>
+        <v>-299.86200000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>73292.195870</v>
+        <v>73292.195869999996</v>
       </c>
       <c r="G22" s="1">
         <v>20.358943</v>
       </c>
       <c r="H22" s="1">
-        <v>1271.680000</v>
+        <v>1271.68</v>
       </c>
       <c r="I22" s="1">
-        <v>-259.364000</v>
+        <v>-259.36399999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>73302.734864</v>
+        <v>73302.734863999998</v>
       </c>
       <c r="L22" s="1">
-        <v>20.361871</v>
+        <v>20.361871000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.300000</v>
+        <v>1307.3</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.421000</v>
+        <v>-201.42099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>73313.006018</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.364724</v>
+        <v>20.364723999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.338000</v>
+        <v>-184.33799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>73323.528646</v>
+        <v>73323.528646000006</v>
       </c>
       <c r="V22" s="1">
-        <v>20.367647</v>
+        <v>20.367647000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.730000</v>
+        <v>1333.73</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.840000</v>
+        <v>-171.84</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>73333.820631</v>
+        <v>73333.820630999995</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.370506</v>
+        <v>20.370505999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.890000</v>
+        <v>1351.89</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.327000</v>
+        <v>-170.327</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>73343.973242</v>
+        <v>73343.973241999993</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.373326</v>
+        <v>20.373325999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1365.520000</v>
+        <v>1365.52</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.112000</v>
+        <v>-180.11199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>73354.237452</v>
+        <v>73354.237452000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.376177</v>
+        <v>20.376176999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1387.100000</v>
+        <v>1387.1</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.839000</v>
+        <v>-209.839</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>73365.189615</v>
+        <v>73365.189614999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.379219</v>
+        <v>20.379218999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1409.620000</v>
+        <v>1409.62</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.219000</v>
+        <v>-253.21899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>73376.233038</v>
+        <v>73376.233038000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.382287</v>
+        <v>20.382287000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1435.010000</v>
+        <v>1435.01</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.399000</v>
+        <v>-312.399</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>73387.264560</v>
+        <v>73387.264559999996</v>
       </c>
       <c r="AZ22" s="1">
         <v>20.385351</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.805000</v>
+        <v>-363.80500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>73398.559457</v>
+        <v>73398.559456999996</v>
       </c>
       <c r="BE22" s="1">
         <v>20.388489</v>
       </c>
       <c r="BF22" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.066000</v>
+        <v>-608.06600000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>73409.591970</v>
+        <v>73409.591969999994</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.391553</v>
+        <v>20.391552999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1698.130000</v>
+        <v>1698.13</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1044.630000</v>
+        <v>-1044.6300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>73420.945396</v>
+        <v>73420.945395999996</v>
       </c>
       <c r="BO22" s="1">
         <v>20.394707</v>
       </c>
       <c r="BP22" s="1">
-        <v>1994.360000</v>
+        <v>1994.36</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1798.300000</v>
+        <v>-1798.3</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>73432.328086</v>
+        <v>73432.328085999994</v>
       </c>
       <c r="BT22" s="1">
         <v>20.397869</v>
       </c>
       <c r="BU22" s="1">
-        <v>2384.080000</v>
+        <v>2384.08</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2666.230000</v>
+        <v>-2666.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>73443.641366</v>
+        <v>73443.641365999996</v>
       </c>
       <c r="BY22" s="1">
         <v>20.401011</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.650000</v>
+        <v>2865.65</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3604.450000</v>
+        <v>-3604.45</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>73456.460933</v>
+        <v>73456.460932999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.404572</v>
+        <v>20.404572000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4261.720000</v>
+        <v>4261.72</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5847.030000</v>
+        <v>-5847.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>73282.062603</v>
+        <v>73282.062602999998</v>
       </c>
       <c r="B23" s="1">
-        <v>20.356129</v>
+        <v>20.356128999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1248.290000</v>
+        <v>1248.29</v>
       </c>
       <c r="D23" s="1">
-        <v>-299.792000</v>
+        <v>-299.79199999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>73292.539599</v>
+        <v>73292.539598999996</v>
       </c>
       <c r="G23" s="1">
-        <v>20.359039</v>
+        <v>20.359038999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.900000</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.823000</v>
+        <v>-260.82299999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>73303.397521</v>
+        <v>73303.397521000006</v>
       </c>
       <c r="L23" s="1">
-        <v>20.362055</v>
+        <v>20.362055000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.630000</v>
+        <v>1307.6300000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.226000</v>
+        <v>-201.226</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>73313.673634</v>
+        <v>73313.673634000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.364909</v>
+        <v>20.364909000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.750000</v>
+        <v>1319.75</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.347000</v>
+        <v>-184.34700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>73323.895207</v>
+        <v>73323.895206999994</v>
       </c>
       <c r="V23" s="1">
         <v>20.367749</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.560000</v>
+        <v>1333.56</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.741000</v>
+        <v>-171.74100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>73334.169352</v>
+        <v>73334.169351999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.370603</v>
+        <v>20.370602999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.960000</v>
+        <v>1351.96</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.189000</v>
+        <v>-170.18899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>73344.317498</v>
+        <v>73344.317498000004</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.373422</v>
+        <v>20.373422000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1365.490000</v>
+        <v>1365.49</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.043000</v>
+        <v>-180.04300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>73354.586140</v>
+        <v>73354.586139999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.376274</v>
+        <v>20.376273999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1387.120000</v>
+        <v>1387.12</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.861000</v>
+        <v>-209.86099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>73365.815105</v>
+        <v>73365.815105000001</v>
       </c>
       <c r="AP23" s="1">
         <v>20.379393</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1409.680000</v>
+        <v>1409.68</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.241000</v>
+        <v>-253.24100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>73376.664062</v>
+        <v>73376.664061999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.382407</v>
+        <v>20.382407000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.020000</v>
+        <v>1435.02</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.458000</v>
+        <v>-312.45800000000003</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>73387.546289</v>
+        <v>73387.546289000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.385430</v>
+        <v>20.385429999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.920000</v>
+        <v>1454.92</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.755000</v>
+        <v>-363.755</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>73398.920049</v>
+        <v>73398.920048999993</v>
       </c>
       <c r="BE23" s="1">
         <v>20.388589</v>
       </c>
       <c r="BF23" s="1">
-        <v>1541.900000</v>
+        <v>1541.9</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.078000</v>
+        <v>-608.07799999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>73409.969428</v>
+        <v>73409.969427999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>20.391658</v>
       </c>
       <c r="BK23" s="1">
-        <v>1698.070000</v>
+        <v>1698.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1044.760000</v>
+        <v>-1044.76</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>73421.343187</v>
+        <v>73421.343187000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.394818</v>
+        <v>20.394818000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1994.420000</v>
+        <v>1994.42</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1798.110000</v>
+        <v>-1798.11</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>73432.752172</v>
+        <v>73432.752171999993</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.397987</v>
+        <v>20.397987000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2383.930000</v>
+        <v>2383.9299999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2666.090000</v>
+        <v>-2666.09</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>73444.082773</v>
+        <v>73444.082773000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.401134</v>
+        <v>20.401133999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2865.980000</v>
+        <v>2865.98</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3604.420000</v>
+        <v>-3604.42</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>73456.980755</v>
+        <v>73456.980754999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.404717</v>
+        <v>20.404717000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4267.650000</v>
+        <v>4267.6499999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5860.810000</v>
+        <v>-5860.81</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>73282.400379</v>
+        <v>73282.400378999999</v>
       </c>
       <c r="B24" s="1">
-        <v>20.356222</v>
+        <v>20.356221999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1248.360000</v>
+        <v>1248.3599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-299.739000</v>
+        <v>-299.73899999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>73293.201794</v>
+        <v>73293.201793999993</v>
       </c>
       <c r="G24" s="1">
         <v>20.359223</v>
       </c>
       <c r="H24" s="1">
-        <v>1271.920000</v>
+        <v>1271.92</v>
       </c>
       <c r="I24" s="1">
-        <v>-259.593000</v>
+        <v>-259.59300000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>73303.772495</v>
+        <v>73303.772494999997</v>
       </c>
       <c r="L24" s="1">
-        <v>20.362159</v>
+        <v>20.362158999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.363000</v>
+        <v>-201.363</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>73314.053570</v>
+        <v>73314.053570000004</v>
       </c>
       <c r="Q24" s="1">
         <v>20.365015</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.840000</v>
+        <v>1319.84</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.300000</v>
+        <v>-184.3</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>73324.240404</v>
+        <v>73324.240403999996</v>
       </c>
       <c r="V24" s="1">
-        <v>20.367845</v>
+        <v>20.367844999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.390000</v>
+        <v>1333.39</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.844000</v>
+        <v>-171.84399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>73334.515031</v>
+        <v>73334.515031000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.370699</v>
+        <v>20.370698999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.920000</v>
+        <v>1351.92</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.221000</v>
+        <v>-170.221</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>73344.664665</v>
+        <v>73344.664665000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.373518</v>
+        <v>20.373518000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.580000</v>
+        <v>1365.58</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.972000</v>
+        <v>-179.97200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>73355.016171</v>
+        <v>73355.016170999996</v>
       </c>
       <c r="AK24" s="1">
         <v>20.376393</v>
       </c>
       <c r="AL24" s="1">
-        <v>1387.160000</v>
+        <v>1387.16</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.867000</v>
+        <v>-209.86699999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>73365.922237</v>
+        <v>73365.922237000006</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.379423</v>
+        <v>20.379422999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1409.610000</v>
+        <v>1409.61</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.222000</v>
+        <v>-253.22200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>73376.960670</v>
+        <v>73376.96067</v>
       </c>
       <c r="AU24" s="1">
         <v>20.382489</v>
       </c>
       <c r="AV24" s="1">
-        <v>1435.030000</v>
+        <v>1435.03</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.405000</v>
+        <v>-312.40499999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>73387.904415</v>
+        <v>73387.904414999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.385529</v>
+        <v>20.385528999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.880000</v>
+        <v>1454.88</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.781000</v>
+        <v>-363.78100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>73399.285632</v>
+        <v>73399.285631999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.388690</v>
+        <v>20.38869</v>
       </c>
       <c r="BF24" s="1">
-        <v>1541.890000</v>
+        <v>1541.89</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.072000</v>
+        <v>-608.072</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>73410.348867</v>
+        <v>73410.348866999993</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.391764</v>
+        <v>20.391763999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1698.000000</v>
+        <v>1698</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1044.610000</v>
+        <v>-1044.6099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>73421.770742</v>
+        <v>73421.770741999993</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.394936</v>
+        <v>20.394936000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1994.290000</v>
+        <v>1994.29</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1798.320000</v>
+        <v>-1798.32</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>73433.172309</v>
+        <v>73433.172309000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.398103</v>
+        <v>20.398102999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2383.770000</v>
+        <v>2383.77</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2666.180000</v>
+        <v>-2666.18</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>73444.505861</v>
+        <v>73444.505860999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.401252</v>
+        <v>20.401251999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2866.180000</v>
+        <v>2866.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3603.760000</v>
+        <v>-3603.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>73457.498067</v>
+        <v>73457.498066999993</v>
       </c>
       <c r="CD24" s="1">
         <v>20.404861</v>
       </c>
       <c r="CE24" s="1">
-        <v>4266.270000</v>
+        <v>4266.2700000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5858.270000</v>
+        <v>-5858.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>73283.005002</v>
+        <v>73283.005002000005</v>
       </c>
       <c r="B25" s="1">
-        <v>20.356390</v>
+        <v>20.356390000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-299.765000</v>
+        <v>-299.76499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>73293.576236</v>
+        <v>73293.576235999994</v>
       </c>
       <c r="G25" s="1">
         <v>20.359327</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.450000</v>
+        <v>1272.45</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.006000</v>
+        <v>-260.00599999999997</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>73304.117214</v>
+        <v>73304.117213999998</v>
       </c>
       <c r="L25" s="1">
-        <v>20.362255</v>
+        <v>20.362255000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.124000</v>
+        <v>-201.124</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>73314.399776</v>
+        <v>73314.399776000006</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.365111</v>
+        <v>20.365110999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.256000</v>
+        <v>-184.256</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>73324.585135</v>
+        <v>73324.585135000001</v>
       </c>
       <c r="V25" s="1">
-        <v>20.367940</v>
+        <v>20.367940000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.610000</v>
+        <v>1333.61</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.783000</v>
+        <v>-171.78299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>73334.951509</v>
+        <v>73334.951509000006</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.370820</v>
+        <v>20.370819999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.990000</v>
+        <v>1351.99</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.309000</v>
+        <v>-170.309</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>73345.108089</v>
+        <v>73345.108089000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.373641</v>
+        <v>20.373640999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.610000</v>
+        <v>1365.61</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.144000</v>
+        <v>-180.14400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>73355.295952</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.376471</v>
+        <v>20.376470999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1387.120000</v>
+        <v>1387.12</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.826000</v>
+        <v>-209.82599999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>73366.269900</v>
+        <v>73366.269899999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.379519</v>
+        <v>20.379518999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1409.670000</v>
+        <v>1409.67</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.221000</v>
+        <v>-253.221</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>73377.324742</v>
+        <v>73377.324741999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.382590</v>
+        <v>20.38259</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.000000</v>
+        <v>1435</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.442000</v>
+        <v>-312.44200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>73388.264495</v>
+        <v>73388.264494999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.385629</v>
+        <v>20.385629000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.910000</v>
+        <v>1454.91</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.798000</v>
+        <v>-363.798</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>73400.006288</v>
+        <v>73400.006288000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.388891</v>
+        <v>20.388891000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1541.900000</v>
+        <v>1541.9</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.003000</v>
+        <v>-608.00300000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>73411.094849</v>
+        <v>73411.094849000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.391971</v>
+        <v>20.391971000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1698.140000</v>
+        <v>1698.14</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1044.630000</v>
+        <v>-1044.6300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>73422.162082</v>
+        <v>73422.162081999995</v>
       </c>
       <c r="BO25" s="1">
         <v>20.395045</v>
       </c>
       <c r="BP25" s="1">
-        <v>1994.290000</v>
+        <v>1994.29</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1798.140000</v>
+        <v>-1798.14</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>73433.595372</v>
+        <v>73433.595371999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.398221</v>
+        <v>20.398220999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2383.540000</v>
+        <v>2383.54</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2666.050000</v>
+        <v>-2666.05</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>73444.930436</v>
+        <v>73444.930435999995</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.401370</v>
+        <v>20.40137</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2866.350000</v>
+        <v>2866.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3603.860000</v>
+        <v>-3603.86</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>73458.366563</v>
+        <v>73458.366563000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.405102</v>
+        <v>20.405101999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4260.480000</v>
+        <v>4260.4799999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5849.780000</v>
+        <v>-5849.78</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>73283.425114</v>
+        <v>73283.425113999998</v>
       </c>
       <c r="B26" s="1">
-        <v>20.356507</v>
+        <v>20.356507000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1248.320000</v>
+        <v>1248.32</v>
       </c>
       <c r="D26" s="1">
-        <v>-299.813000</v>
+        <v>-299.81299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>73293.920988</v>
+        <v>73293.920987999998</v>
       </c>
       <c r="G26" s="1">
-        <v>20.359422</v>
+        <v>20.359421999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.150000</v>
+        <v>1272.1500000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.137000</v>
+        <v>-260.137</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>73304.465934</v>
+        <v>73304.465934000007</v>
       </c>
       <c r="L26" s="1">
-        <v>20.362352</v>
+        <v>20.362352000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.690000</v>
+        <v>1307.69</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.306000</v>
+        <v>-201.30600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>73314.753425</v>
+        <v>73314.753425000003</v>
       </c>
       <c r="Q26" s="1">
         <v>20.365209</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.244000</v>
+        <v>-184.244</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>73325.026564</v>
       </c>
       <c r="V26" s="1">
-        <v>20.368063</v>
+        <v>20.368062999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.620000</v>
+        <v>1333.62</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.735000</v>
+        <v>-171.73500000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>73335.224310</v>
+        <v>73335.224310000005</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.370896</v>
+        <v>20.370895999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1352.130000</v>
+        <v>1352.13</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.209000</v>
+        <v>-170.209</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>73345.368488</v>
+        <v>73345.368487999993</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.373713</v>
+        <v>20.373712999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.590000</v>
+        <v>1365.59</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.064000</v>
+        <v>-180.06399999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>73355.644107</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.376568</v>
+        <v>20.376567999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1387.130000</v>
+        <v>1387.13</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.868000</v>
+        <v>-209.86799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>73366.627516</v>
+        <v>73366.627515999993</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.379619</v>
+        <v>20.379619000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1409.640000</v>
+        <v>1409.64</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>73377.688301</v>
+        <v>73377.688301000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.382691</v>
+        <v>20.382691000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1435.010000</v>
+        <v>1435.01</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.423000</v>
+        <v>-312.423</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>73388.971790</v>
+        <v>73388.971789999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.385825</v>
+        <v>20.385825000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.870000</v>
+        <v>1454.87</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.768000</v>
+        <v>-363.76799999999997</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>73400.392672</v>
+        <v>73400.392672000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.388998</v>
+        <v>20.388998000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1541.860000</v>
+        <v>1541.86</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.048000</v>
+        <v>-608.048</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>73411.469824</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.392075</v>
+        <v>20.392074999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1698.040000</v>
+        <v>1698.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1044.700000</v>
+        <v>-1044.7</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>73422.586162</v>
+        <v>73422.586162000007</v>
       </c>
       <c r="BO26" s="1">
         <v>20.395163</v>
       </c>
       <c r="BP26" s="1">
-        <v>1994.430000</v>
+        <v>1994.43</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1798.290000</v>
+        <v>-1798.29</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>73434.320021</v>
+        <v>73434.320021000007</v>
       </c>
       <c r="BT26" s="1">
         <v>20.398422</v>
       </c>
       <c r="BU26" s="1">
-        <v>2383.550000</v>
+        <v>2383.5500000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2665.930000</v>
+        <v>-2665.93</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>73445.686339</v>
+        <v>73445.686339000007</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.401580</v>
+        <v>20.401579999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.330000</v>
+        <v>2865.33</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3603.820000</v>
+        <v>-3603.82</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>73458.576370</v>
+        <v>73458.576369999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.405160</v>
+        <v>20.405159999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.220000</v>
+        <v>4270.22</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5861.240000</v>
+        <v>-5861.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>